--- a/Book.xlsx
+++ b/Book.xlsx
@@ -7,13 +7,12 @@
   </bookViews>
   <sheets>
     <sheet name="UpComingBikes" r:id="rId3" sheetId="1"/>
-    <sheet name="UsedCar" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Bike name</t>
   </si>
@@ -82,36 +81,6 @@
   </si>
   <si>
     <t>Honda Rebel 300</t>
-  </si>
-  <si>
-    <t>Car Model and Make</t>
-  </si>
-  <si>
-    <t>Maruti 800</t>
-  </si>
-  <si>
-    <t>Maruti Swift Dzire</t>
-  </si>
-  <si>
-    <t>Maruti Swift</t>
-  </si>
-  <si>
-    <t>Hyundai I10</t>
-  </si>
-  <si>
-    <t>Hyundai Santro Xing</t>
-  </si>
-  <si>
-    <t>Honda City</t>
-  </si>
-  <si>
-    <t>Toyota Innova</t>
-  </si>
-  <si>
-    <t>Toyota Fortuner</t>
-  </si>
-  <si>
-    <t>Mahindra XUV500</t>
   </si>
 </sst>
 </file>
@@ -264,67 +233,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" t="s" s="0">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" t="s" s="0">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="s" s="0">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="s" s="0">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="s" s="0">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="s" s="0">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="s" s="0">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="s" s="0">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="s" s="0">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/Book.xlsx
+++ b/Book.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="UpComingBikes" r:id="rId3" sheetId="1"/>
+    <sheet name="UsedCar" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Bike name</t>
   </si>
@@ -81,6 +82,36 @@
   </si>
   <si>
     <t>Honda Rebel 300</t>
+  </si>
+  <si>
+    <t>Car Model and Make</t>
+  </si>
+  <si>
+    <t>Maruti 800</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire</t>
+  </si>
+  <si>
+    <t>Maruti Swift</t>
+  </si>
+  <si>
+    <t>Hyundai I10</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing</t>
+  </si>
+  <si>
+    <t>Honda City</t>
+  </si>
+  <si>
+    <t>Toyota Innova</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500</t>
   </si>
 </sst>
 </file>
@@ -233,4 +264,67 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="B1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>